--- a/Project/Variables.xlsx
+++ b/Project/Variables.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="227">
   <si>
     <t>Direct publisher problems with mobile devices or Safari</t>
   </si>
@@ -412,6 +412,306 @@
   </si>
   <si>
     <t xml:space="preserve"> fBodyBodyGyroJerkMag-meanFreq()</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Activity types</t>
+  </si>
+  <si>
+    <t>LAYING</t>
+  </si>
+  <si>
+    <t>SITTING</t>
+  </si>
+  <si>
+    <t>STANDING</t>
+  </si>
+  <si>
+    <t>WALKING</t>
+  </si>
+  <si>
+    <t>WALKING_DOWNSTAIRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALKING_UPSTAIRS </t>
+  </si>
+  <si>
+    <t># of subject being measured</t>
+  </si>
+  <si>
+    <t>1.30 INTEGER</t>
+  </si>
+  <si>
+    <t>Body acceleration - X component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Y component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Z component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - X component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Y component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Z component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - X component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Y component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Z component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - X component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Y component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Z component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - X component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Y component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Z component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - X component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Y component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Z component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - X component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Y component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Z component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - X component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Y component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Z component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - X component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Y component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Z component - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - X component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Y component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Z component - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - magnitude - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - magnitude - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - magnitude - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - magnitude - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - magnitude - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - magnitude - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - magnitude - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - magnitude - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - magnitude - Mean - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - magnitude - Standard deviation - Time domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - X component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Y component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Z component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - X component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Y component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - Z component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - X component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Y component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Z component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - X component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Y component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Z component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - X component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Y component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Z component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - X component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Y component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Z component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - X component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Y component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Z component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - X component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Y component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Z component - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - X component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Y component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - Z component - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - magnitude - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - magnitude - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - magnitude - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - magnitude - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - magnitude - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - magnitude - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - magnitude - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - magnitude - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - magnitude - Mean - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - magnitude - Standard deviation - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - X component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Y component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, gravity component - Z component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - X component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Y component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - Z component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - X component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Y component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - Z component - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration - magnitude - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body acceleration, jerk component - magnitude - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation - magnitude - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
+  </si>
+  <si>
+    <t>Body rotation, jerk component - magnitude - Mean Frequency - Frequency domain - Variable normalized to -1:1</t>
   </si>
 </sst>
 </file>
@@ -453,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -470,6 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,737 +1308,1449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D23" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D24" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="D25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D26" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="D27" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D28" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="D35" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D36" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="D37" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="D38" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="D39" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D40" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="D45" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="D46" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="D49" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="D50" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="D56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="D60" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="D61" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="D62" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="D63" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="D64" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="D65" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="D66" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="D67" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="D68" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="D70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="D74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B76" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="D76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B79" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B80" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="D81" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="D82" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B83" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="D83" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B85" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="D85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="D87" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="D88" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B89" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="D109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="D110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="D111" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="D112" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="D113" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
